--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H2">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I2">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J2">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N2">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O2">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P2">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q2">
-        <v>15.20159926701339</v>
+        <v>20.41110482123122</v>
       </c>
       <c r="R2">
-        <v>15.20159926701339</v>
+        <v>183.699943391081</v>
       </c>
       <c r="S2">
-        <v>0.211846295902212</v>
+        <v>0.2253054397187365</v>
       </c>
       <c r="T2">
-        <v>0.211846295902212</v>
+        <v>0.2387241735946042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H3">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I3">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J3">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N3">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P3">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q3">
-        <v>0.5590598892137786</v>
+        <v>0.7034411949023334</v>
       </c>
       <c r="R3">
-        <v>0.5590598892137786</v>
+        <v>6.330970754121</v>
       </c>
       <c r="S3">
-        <v>0.007790941244875251</v>
+        <v>0.007764848062946913</v>
       </c>
       <c r="T3">
-        <v>0.007790941244875251</v>
+        <v>0.00822730662530255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H4">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I4">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J4">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N4">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O4">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P4">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q4">
-        <v>0.193558021337156</v>
+        <v>0.2915283378691667</v>
       </c>
       <c r="R4">
-        <v>0.193558021337156</v>
+        <v>1.749170027215</v>
       </c>
       <c r="S4">
-        <v>0.002697383949030638</v>
+        <v>0.00321799926703443</v>
       </c>
       <c r="T4">
-        <v>0.002697383949030638</v>
+        <v>0.002273104506811874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.86722253179904</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H5">
-        <v>0.86722253179904</v>
+        <v>2.775692</v>
       </c>
       <c r="I5">
-        <v>0.1874122141782587</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J5">
-        <v>0.1874122141782587</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N5">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O5">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P5">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q5">
-        <v>12.81386301258917</v>
+        <v>15.43057361143155</v>
       </c>
       <c r="R5">
-        <v>12.81386301258917</v>
+        <v>138.875162502884</v>
       </c>
       <c r="S5">
-        <v>0.178571304751194</v>
+        <v>0.1703284659544562</v>
       </c>
       <c r="T5">
-        <v>0.178571304751194</v>
+        <v>0.1804728830576601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.86722253179904</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H6">
-        <v>0.86722253179904</v>
+        <v>2.775692</v>
       </c>
       <c r="I6">
-        <v>0.1874122141782587</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J6">
-        <v>0.1874122141782587</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N6">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P6">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q6">
-        <v>0.4712475779942112</v>
+        <v>0.5317939050493333</v>
       </c>
       <c r="R6">
-        <v>0.4712475779942112</v>
+        <v>4.786145145443999</v>
       </c>
       <c r="S6">
-        <v>0.00656720731137758</v>
+        <v>0.005870140821199144</v>
       </c>
       <c r="T6">
-        <v>0.00656720731137758</v>
+        <v>0.006219754472746449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.86722253179904</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H7">
-        <v>0.86722253179904</v>
+        <v>2.775692</v>
       </c>
       <c r="I7">
-        <v>0.1874122141782587</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J7">
-        <v>0.1874122141782587</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N7">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O7">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P7">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q7">
-        <v>0.1631555948053491</v>
+        <v>0.2203922578766667</v>
       </c>
       <c r="R7">
-        <v>0.1631555948053491</v>
+        <v>1.32235354726</v>
       </c>
       <c r="S7">
-        <v>0.002273702115687073</v>
+        <v>0.002432772503321664</v>
       </c>
       <c r="T7">
-        <v>0.002273702115687073</v>
+        <v>0.001718442324707127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7290280888959479</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H8">
-        <v>0.7290280888959479</v>
+        <v>2.460996</v>
       </c>
       <c r="I8">
-        <v>0.1575475305683072</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J8">
-        <v>0.1575475305683072</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N8">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O8">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P8">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q8">
-        <v>10.77193652252463</v>
+        <v>13.681121657388</v>
       </c>
       <c r="R8">
-        <v>10.77193652252463</v>
+        <v>123.130094916492</v>
       </c>
       <c r="S8">
-        <v>0.1501154458756453</v>
+        <v>0.1510173583380479</v>
       </c>
       <c r="T8">
-        <v>0.1501154458756453</v>
+        <v>0.1600116451369134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7290280888959479</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H9">
-        <v>0.7290280888959479</v>
+        <v>2.460996</v>
       </c>
       <c r="I9">
-        <v>0.1575475305683072</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J9">
-        <v>0.1575475305683072</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N9">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O9">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P9">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q9">
-        <v>0.3961529003049183</v>
+        <v>0.471501403308</v>
       </c>
       <c r="R9">
-        <v>0.3961529003049183</v>
+        <v>4.243512629772001</v>
       </c>
       <c r="S9">
-        <v>0.005520703648768359</v>
+        <v>0.005204609546162834</v>
       </c>
       <c r="T9">
-        <v>0.005520703648768359</v>
+        <v>0.005514585508194398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7290280888959479</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H10">
-        <v>0.7290280888959479</v>
+        <v>2.460996</v>
       </c>
       <c r="I10">
-        <v>0.1575475305683072</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J10">
-        <v>0.1575475305683072</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N10">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O10">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P10">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q10">
-        <v>0.1371562743265857</v>
+        <v>0.19540513323</v>
       </c>
       <c r="R10">
-        <v>0.1371562743265857</v>
+        <v>1.17243079938</v>
       </c>
       <c r="S10">
-        <v>0.001911381043893508</v>
+        <v>0.002156955238399866</v>
       </c>
       <c r="T10">
-        <v>0.001911381043893508</v>
+        <v>0.001523612737773118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24569569455324</v>
+        <v>1.40357</v>
       </c>
       <c r="H11">
-        <v>1.24569569455324</v>
+        <v>4.210710000000001</v>
       </c>
       <c r="I11">
-        <v>0.2692026322520013</v>
+        <v>0.2709828522198361</v>
       </c>
       <c r="J11">
-        <v>0.2692026322520013</v>
+        <v>0.285818605975276</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N11">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O11">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P11">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q11">
-        <v>18.40608771114843</v>
+        <v>23.40809809279667</v>
       </c>
       <c r="R11">
-        <v>18.40608771114843</v>
+        <v>210.67288283517</v>
       </c>
       <c r="S11">
-        <v>0.256503374096908</v>
+        <v>0.258387376870016</v>
       </c>
       <c r="T11">
-        <v>0.256503374096908</v>
+        <v>0.2737764036570773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24569569455324</v>
+        <v>1.40357</v>
       </c>
       <c r="H12">
-        <v>1.24569569455324</v>
+        <v>4.210710000000001</v>
       </c>
       <c r="I12">
-        <v>0.2692026322520013</v>
+        <v>0.2709828522198361</v>
       </c>
       <c r="J12">
-        <v>0.2692026322520013</v>
+        <v>0.285818605975276</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N12">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O12">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P12">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q12">
-        <v>0.6769093945913098</v>
+        <v>0.8067285253300001</v>
       </c>
       <c r="R12">
-        <v>0.6769093945913098</v>
+        <v>7.260556727970001</v>
       </c>
       <c r="S12">
-        <v>0.009433267210032913</v>
+        <v>0.008904972402280747</v>
       </c>
       <c r="T12">
-        <v>0.009433267210032913</v>
+        <v>0.009435334452071125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.24569569455324</v>
+        <v>1.40357</v>
       </c>
       <c r="H13">
-        <v>1.24569569455324</v>
+        <v>4.210710000000001</v>
       </c>
       <c r="I13">
-        <v>0.2692026322520013</v>
+        <v>0.2709828522198361</v>
       </c>
       <c r="J13">
-        <v>0.2692026322520013</v>
+        <v>0.285818605975276</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N13">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O13">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P13">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q13">
-        <v>0.2343599416976327</v>
+        <v>0.334333882925</v>
       </c>
       <c r="R13">
-        <v>0.2343599416976327</v>
+        <v>2.00600329755</v>
       </c>
       <c r="S13">
-        <v>0.003265990945060354</v>
+        <v>0.003690502947539412</v>
       </c>
       <c r="T13">
-        <v>0.003265990945060354</v>
+        <v>0.002606867866127635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.756586158969354</v>
+        <v>0.8065525</v>
       </c>
       <c r="H14">
-        <v>0.756586158969354</v>
+        <v>1.613105</v>
       </c>
       <c r="I14">
-        <v>0.1635030019053151</v>
+        <v>0.1557185583298584</v>
       </c>
       <c r="J14">
-        <v>0.1635030019053151</v>
+        <v>0.1094958860600107</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.7757496406453</v>
+        <v>16.67754233333333</v>
       </c>
       <c r="N14">
-        <v>14.7757496406453</v>
+        <v>50.03262699999999</v>
       </c>
       <c r="O14">
-        <v>0.9528263967968729</v>
+        <v>0.9535192900707901</v>
       </c>
       <c r="P14">
-        <v>0.9528263967968729</v>
+        <v>0.9578676752791928</v>
       </c>
       <c r="Q14">
-        <v>11.17912766650864</v>
+        <v>13.45131346280583</v>
       </c>
       <c r="R14">
-        <v>11.17912766650864</v>
+        <v>80.70788077683498</v>
       </c>
       <c r="S14">
-        <v>0.1557899761709136</v>
+        <v>0.1484806491895335</v>
       </c>
       <c r="T14">
-        <v>0.1557899761709136</v>
+        <v>0.1048825698329378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.756586158969354</v>
+        <v>0.8065525</v>
       </c>
       <c r="H15">
-        <v>0.756586158969354</v>
+        <v>1.613105</v>
       </c>
       <c r="I15">
-        <v>0.1635030019053151</v>
+        <v>0.1557185583298584</v>
       </c>
       <c r="J15">
-        <v>0.1635030019053151</v>
+        <v>0.1094958860600107</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.543398678787341</v>
+        <v>0.574769</v>
       </c>
       <c r="N15">
-        <v>0.543398678787341</v>
+        <v>1.724307</v>
       </c>
       <c r="O15">
-        <v>0.03504151178285065</v>
+        <v>0.0328617561197435</v>
       </c>
       <c r="P15">
-        <v>0.03504151178285065</v>
+        <v>0.03301161735036698</v>
       </c>
       <c r="Q15">
-        <v>0.4111279191727362</v>
+        <v>0.4635813738725</v>
       </c>
       <c r="R15">
-        <v>0.4111279191727362</v>
+        <v>2.781488243235</v>
       </c>
       <c r="S15">
-        <v>0.005729392367796551</v>
+        <v>0.005117185287153859</v>
       </c>
       <c r="T15">
-        <v>0.005729392367796551</v>
+        <v>0.003614636292052455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.756586158969354</v>
+        <v>0.8065525</v>
       </c>
       <c r="H16">
-        <v>0.756586158969354</v>
+        <v>1.613105</v>
       </c>
       <c r="I16">
-        <v>0.1635030019053151</v>
+        <v>0.1557185583298584</v>
       </c>
       <c r="J16">
-        <v>0.1635030019053151</v>
+        <v>0.1094958860600107</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.188135788477365</v>
+        <v>0.2382025</v>
       </c>
       <c r="N16">
-        <v>0.188135788477365</v>
+        <v>0.476405</v>
       </c>
       <c r="O16">
-        <v>0.0121320914202765</v>
+        <v>0.01361895380946642</v>
       </c>
       <c r="P16">
-        <v>0.0121320914202765</v>
+        <v>0.009120707370440172</v>
       </c>
       <c r="Q16">
-        <v>0.1423409335687604</v>
+        <v>0.19212282188125</v>
       </c>
       <c r="R16">
-        <v>0.1423409335687604</v>
+        <v>0.7684912875250001</v>
       </c>
       <c r="S16">
-        <v>0.001983633366604925</v>
+        <v>0.002120723853171043</v>
       </c>
       <c r="T16">
-        <v>0.001983633366604925</v>
+        <v>0.0009986799350204167</v>
       </c>
     </row>
   </sheetData>
